--- a/Notice_export.xlsx
+++ b/Notice_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A45C447-C10F-469E-8B3F-6A96F15D83A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBEE891-D083-48C8-BE80-40FE26056B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC8138EE-D32B-4521-81F9-4B6DD4B1CE53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>NOTICE</t>
   </si>
@@ -242,6 +242,42 @@
   </si>
   <si>
     <t>Présence d'un fichier joint sur la BDN (oui/non)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisation du tableau "Export aménagement" : </t>
+  </si>
+  <si>
+    <t>- Espèce protégée (arrêté national ou régional)</t>
+  </si>
+  <si>
+    <t>- Espèce d'intérêt europén (directive oiseaux annexe I ou directive habitats, faune, flore annexes II&amp;IV)</t>
+  </si>
+  <si>
+    <t>- Espèce menacée régionalement ou nationalement (catégories listes rouges : VU, EN ou CR)</t>
+  </si>
+  <si>
+    <t>- Espèce objet d'une clause environnementale de l'ONF (cahier national des prescriptions environnement et sécurité)</t>
+  </si>
+  <si>
+    <t>Cette liste peut être mentionnée en annexe, en veillant à citer les critères constitutifs ci-dessus.</t>
+  </si>
+  <si>
+    <t>1*. Pour la flore, veiller à trier les lignes par arrêté de protection BN ou HN pour supprimer celles qui ne concernent pas votre secteur. De plus, les listes rouges régionales pour les plantes concernent les anciennes régions : par défaut, c'est le statut maximal des deux anciennes régions qui apparait dans la colonne LR_reg. Pour avoir le bon statut pour votre secteur il faut vérifier sur la page inpn de l'espèce dans l'onglet "statuts".</t>
+  </si>
+  <si>
+    <t>*Ces tris ne seront plus nécessaires une fois les listes rouges et arrêtés de protection actualisés à l'échelle de la région.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. La liste d'espèce constitue dorénavant la liste des espèces considérées "remarquables" de votre forêt, c'est à dire celles qui présentent au moins un des statuts suivants : </t>
+  </si>
+  <si>
+    <t>3.  Utiliser la colonne "Indice_priorité_conservation" pour hiérarchiser les espèces remarquables entre elles et cibler celles qui présentent des scores supérieurs ou égaux à 3 pour les notifier en commentaire de parcelle sur l'aménagement et inclure potentiellement des conseils de gestion basés sur les fiches espèce de la colonne "Conseils_gestion".</t>
+  </si>
+  <si>
+    <t>Veiller à citer la méthode de hiérarchisation utilisée et la source des conseils de gestion</t>
+  </si>
+  <si>
+    <t>/!\</t>
   </si>
 </sst>
 </file>
@@ -302,28 +338,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -341,275 +369,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7296150" cy="9439276"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF6E8F6-9C74-50B1-7159-EF6726FFFF4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10239375" y="200024"/>
-          <a:ext cx="7296150" cy="9439276"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Utilisation du tableau "Export aménagement"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> :</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" b="0" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1*. Pour la flore, veiller à trier les lignes par arrêté de protection BN ou HN pour </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>supprimer </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>celles qui ne concernent pas votre secteur. De plus, les listes rouges régionales pour les plantes concernent les anciennes régions : par défaut, c'est le statut maximal des deux anciennes régions qui apparait dans la colonne LR_reg. Pour avoir le bon statut pour votre secteur il faut vérifier sur la page inpn de l'espèce dans l'onglet "statuts".</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" i="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Ces tris ne seront plus nécessaires une fois les listes rouges et arrêtés de protection actualisés à l'échelle de la région.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1600" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2. La liste d'espèce constitue dorénavant la liste des espèces considérées "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>remarquables</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>" de votre forêt, c'est à dire celles qui présentent au moins un des statuts suivants : </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Espèce protégée (arrêté national ou régional)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Espèce d'intérêt europén (directive oiseaux annexe I ou directive habitats, faune, flore annexes II&amp;IV)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Espèce menacée régionalement ou nationalement (catégories listes rouges : VU, EN ou CR)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Espèce objet d'une clause environnementale de l'ONF (cahier national des prescriptions environnement et sécurité)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1600" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Cette liste peut être mentionnée en annexe, en veillant à citer les critères constitutifs ci-dessus.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1600" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3.  Utiliser la colonne "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Indice_priorité_conservation</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>" pour hiérarchiser les espèces remarquables entre elles et cibler celles qui présentent des scores supérieurs ou égaux à 3 pour les notifier en commentaire de parcelle sur l'aménagement et inclure potentiellement des conseils de gestion basés sur les fiches espèce de la colonne "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Conseils_gestion</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>". Veiller à citer la méthode de hiérarchisation utilisée et la source des conseils de gestion</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,368 +688,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47A8BD-8584-4D61-B5EC-09B16443D8A6}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="4" t="s">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Notice_export.xlsx
+++ b/Notice_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBEE891-D083-48C8-BE80-40FE26056B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE6D99-4AA6-46C6-AA2C-193935C7CE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC8138EE-D32B-4521-81F9-4B6DD4B1CE53}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
-  <si>
-    <t>NOTICE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>Forêt</t>
   </si>
@@ -96,12 +93,6 @@
   </si>
   <si>
     <t>LR_reg</t>
-  </si>
-  <si>
-    <t>Vulnérabilité</t>
-  </si>
-  <si>
-    <t>Respo_reg</t>
   </si>
   <si>
     <t>Directives_euro</t>
@@ -175,33 +166,18 @@
     <t>Intitulé du Plan national d'action (PNA) ou régional d'action (PRA) si existant. Plan en préparation ou en cours.</t>
   </si>
   <si>
-    <t>Statut liste rouge nationale. RE = Disparue, CR = En danger critique, EN = En danger, VU = Vulnérable, NT = Quasi-menacé, LC = Préoccupation mineure</t>
-  </si>
-  <si>
     <t>Indice_priorité_conservation</t>
   </si>
   <si>
     <t>Intitulé des annexes des directives européennes si concerné. DH = Directive habitats, faune, flore. DO = Directive oiseaux.</t>
   </si>
   <si>
-    <t>Calcul de la responsabilité de la Normandie par rapport à la France métropolitaine dans la conservation de l'espèce. Méthode Barneix &amp; Gigot, 2013.</t>
-  </si>
-  <si>
-    <t>Calcul de la vulnérabilité de l'espèce : croisement des listes rouges nationales et régionales selon la méthode Barneix &amp; Gigot, 2013.</t>
-  </si>
-  <si>
-    <t>Openobs, Méthode Barneix &amp; Gigot, 2013</t>
-  </si>
-  <si>
     <t>Nom scientifique valide selon le référentiel TAXREF</t>
   </si>
   <si>
     <t>Catégorie naturaliste (oiseaux, odonates, poissons etc.)</t>
   </si>
   <si>
-    <t>Croisement de la Vulnérabilité et de la Respo_reg selon la méthode Barneix &amp; Gigot, 2013.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observation vérifiée ou non. </t>
   </si>
   <si>
@@ -211,9 +187,6 @@
     <t>Nom et prénom de l'observateur.</t>
   </si>
   <si>
-    <t>Statut liste rouge régionale. RE = Disparue, CR = En danger critique, EN = En danger, VU = Vulnérable, NT = Quasi-menacé, LC = Préoccupation mineure.</t>
-  </si>
-  <si>
     <t>WGS84.</t>
   </si>
   <si>
@@ -271,13 +244,25 @@
     <t xml:space="preserve">2. La liste d'espèce constitue dorénavant la liste des espèces considérées "remarquables" de votre forêt, c'est à dire celles qui présentent au moins un des statuts suivants : </t>
   </si>
   <si>
-    <t>3.  Utiliser la colonne "Indice_priorité_conservation" pour hiérarchiser les espèces remarquables entre elles et cibler celles qui présentent des scores supérieurs ou égaux à 3 pour les notifier en commentaire de parcelle sur l'aménagement et inclure potentiellement des conseils de gestion basés sur les fiches espèce de la colonne "Conseils_gestion".</t>
-  </si>
-  <si>
     <t>Veiller à citer la méthode de hiérarchisation utilisée et la source des conseils de gestion</t>
   </si>
   <si>
     <t>/!\</t>
+  </si>
+  <si>
+    <t>Statut liste rouge régionale. RE = Disparue, CR = En danger critique, EN = En danger, VU = Vulnérable, NT = Quasi-menacé, LC = Préoccupation mineure, NE =  Non évalué, DD = Données insuffisantes, NA = Non applicable.</t>
+  </si>
+  <si>
+    <t>Statut liste rouge nationale. RE = Disparue, CR = En danger critique, EN = En danger, VU = Vulnérable, NT = Quasi-menacé, LC = Préoccupation mineure, NE =  Non évalué, DD = Données insuffisantes, NA = Non applicable.</t>
+  </si>
+  <si>
+    <t>Utilisation</t>
+  </si>
+  <si>
+    <t>3.  Utiliser la colonne "Indice_priorité_conservation" pour hiérarchiser les espèces remarquables entre elles et cibler celles qui présentent les scores de priorité de conservation les plus hauts pour les notifier en commentaire de parcelle sur l'aménagement et inclure potentiellement des conseils de gestion basés sur les fiches espèce de la colonne "Conseils_gestion".</t>
+  </si>
+  <si>
+    <t>1 = faible, 2 = modérée, 3 = élevée, 4 = très élevée, 5 = majeure. Croisement de la Vulnérabilité (déterminée en croisant les listes rouges nationales et régionales) et de la Responsabilité_régionale (déterminée en calculant la proportion de maille de présence de l'espèce en Normandie par rapport à la métropole). La vulnérabilité, la responsabilité et l'indice de priorité de conservation ont été déterminés en s'appuyant sur la méthodologie Barneix &amp; Gigot, 2013.</t>
   </si>
 </sst>
 </file>
@@ -338,9 +323,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -688,403 +672,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47A8BD-8584-4D61-B5EC-09B16443D8A6}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>56</v>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>54</v>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>55</v>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>52</v>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Notice_export.xlsx
+++ b/Notice_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE6D99-4AA6-46C6-AA2C-193935C7CE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E7C0B6-5ED1-4732-9EDA-D51A1D8ADD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC8138EE-D32B-4521-81F9-4B6DD4B1CE53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>Forêt</t>
   </si>
@@ -256,13 +256,13 @@
     <t>Statut liste rouge nationale. RE = Disparue, CR = En danger critique, EN = En danger, VU = Vulnérable, NT = Quasi-menacé, LC = Préoccupation mineure, NE =  Non évalué, DD = Données insuffisantes, NA = Non applicable.</t>
   </si>
   <si>
-    <t>Utilisation</t>
-  </si>
-  <si>
     <t>3.  Utiliser la colonne "Indice_priorité_conservation" pour hiérarchiser les espèces remarquables entre elles et cibler celles qui présentent les scores de priorité de conservation les plus hauts pour les notifier en commentaire de parcelle sur l'aménagement et inclure potentiellement des conseils de gestion basés sur les fiches espèce de la colonne "Conseils_gestion".</t>
   </si>
   <si>
     <t>1 = faible, 2 = modérée, 3 = élevée, 4 = très élevée, 5 = majeure. Croisement de la Vulnérabilité (déterminée en croisant les listes rouges nationales et régionales) et de la Responsabilité_régionale (déterminée en calculant la proportion de maille de présence de l'espèce en Normandie par rapport à la métropole). La vulnérabilité, la responsabilité et l'indice de priorité de conservation ont été déterminés en s'appuyant sur la méthodologie Barneix &amp; Gigot, 2013.</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
 </sst>
 </file>
@@ -672,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47A8BD-8584-4D61-B5EC-09B16443D8A6}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,10 +683,13 @@
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -696,14 +699,23 @@
       <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,14 +725,8 @@
       <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -730,14 +736,8 @@
       <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -747,14 +747,14 @@
       <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,11 +764,14 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,14 +781,14 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,14 +798,11 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,14 +812,14 @@
       <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,14 +829,14 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -846,14 +846,14 @@
       <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -863,14 +863,14 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,11 +880,14 @@
       <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -894,14 +897,14 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -911,14 +914,11 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -928,8 +928,14 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -939,8 +945,14 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -951,7 +963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -962,7 +974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -973,7 +985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -984,18 +996,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1006,7 +1018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1016,8 +1028,11 @@
       <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1028,7 +1043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1039,7 +1054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1061,7 +1076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1072,7 +1087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>

--- a/Notice_export.xlsx
+++ b/Notice_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E7C0B6-5ED1-4732-9EDA-D51A1D8ADD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67082E77-12D1-4DFF-BB14-4EE64D037D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC8138EE-D32B-4521-81F9-4B6DD4B1CE53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="80">
   <si>
     <t>Forêt</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Veiller à citer la méthode de hiérarchisation utilisée et la source des conseils de gestion</t>
   </si>
   <si>
-    <t>/!\</t>
-  </si>
-  <si>
     <t>Statut liste rouge régionale. RE = Disparue, CR = En danger critique, EN = En danger, VU = Vulnérable, NT = Quasi-menacé, LC = Préoccupation mineure, NE =  Non évalué, DD = Données insuffisantes, NA = Non applicable.</t>
   </si>
   <si>
@@ -262,7 +259,25 @@
     <t>1 = faible, 2 = modérée, 3 = élevée, 4 = très élevée, 5 = majeure. Croisement de la Vulnérabilité (déterminée en croisant les listes rouges nationales et régionales) et de la Responsabilité_régionale (déterminée en calculant la proportion de maille de présence de l'espèce en Normandie par rapport à la métropole). La vulnérabilité, la responsabilité et l'indice de priorité de conservation ont été déterminés en s'appuyant sur la méthodologie Barneix &amp; Gigot, 2013.</t>
   </si>
   <si>
-    <t>_</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>…...............</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>…................</t>
+  </si>
+  <si>
+    <t>…...................</t>
+  </si>
+  <si>
+    <t>…...........................</t>
+  </si>
+  <si>
+    <t>…...............................</t>
   </si>
 </sst>
 </file>
@@ -672,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47A8BD-8584-4D61-B5EC-09B16443D8A6}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,10 +701,10 @@
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -700,22 +715,22 @@
         <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,8 +751,110 @@
       <c r="C3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -748,13 +865,16 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AN4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,13 +885,16 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AN5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -782,13 +905,16 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AN6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,10 +925,13 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,13 +942,16 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -830,13 +962,16 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -847,13 +982,16 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AN10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -864,13 +1002,16 @@
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AN11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,13 +1022,16 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AN12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -898,13 +1042,16 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AN13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -915,10 +1062,13 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -929,13 +1079,16 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -946,13 +1099,16 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AN16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -962,8 +1118,110 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" t="s">
+        <v>74</v>
+      </c>
+      <c r="T17" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s">
+        <v>74</v>
+      </c>
+      <c r="X17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -974,40 +1232,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1018,7 +1276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1032,7 +1290,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1043,7 +1301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1054,7 +1312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1087,7 +1345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>

--- a/Notice_export.xlsx
+++ b/Notice_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67082E77-12D1-4DFF-BB14-4EE64D037D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370F6F12-A7CA-4CDC-BD09-803F69CEE3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC8138EE-D32B-4521-81F9-4B6DD4B1CE53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="74">
   <si>
     <t>Forêt</t>
   </si>
@@ -259,25 +259,7 @@
     <t>1 = faible, 2 = modérée, 3 = élevée, 4 = très élevée, 5 = majeure. Croisement de la Vulnérabilité (déterminée en croisant les listes rouges nationales et régionales) et de la Responsabilité_régionale (déterminée en calculant la proportion de maille de présence de l'espèce en Normandie par rapport à la métropole). La vulnérabilité, la responsabilité et l'indice de priorité de conservation ont été déterminés en s'appuyant sur la méthodologie Barneix &amp; Gigot, 2013.</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>…...............</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>…................</t>
-  </si>
-  <si>
-    <t>…...................</t>
-  </si>
-  <si>
-    <t>…...........................</t>
-  </si>
-  <si>
-    <t>…...............................</t>
   </si>
 </sst>
 </file>
@@ -687,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47A8BD-8584-4D61-B5EC-09B16443D8A6}">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +686,7 @@
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -714,23 +696,13 @@
       <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,8 +712,122 @@
       <c r="C2" t="s">
         <v>30</v>
       </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -751,110 +837,122 @@
       <c r="C3" t="s">
         <v>30</v>
       </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AN3" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -864,17 +962,23 @@
       <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>75</v>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
       </c>
-      <c r="AN4" t="s">
-        <v>75</v>
+      <c r="AO4" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -884,17 +988,20 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>75</v>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -904,17 +1011,23 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
-        <v>75</v>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -924,14 +1037,23 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>75</v>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -941,17 +1063,20 @@
       <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>75</v>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,17 +1086,23 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
-        <v>75</v>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -981,17 +1112,23 @@
       <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="G10" t="s">
-        <v>75</v>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1001,17 +1138,23 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
-        <v>75</v>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1021,17 +1164,23 @@
       <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" t="s">
-        <v>75</v>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1041,17 +1190,23 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" t="s">
-        <v>75</v>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1061,14 +1216,23 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>75</v>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1078,17 +1242,20 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="G15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>75</v>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1098,17 +1265,23 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" t="s">
-        <v>75</v>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,110 +1291,23 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="G17" t="s">
-        <v>74</v>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R17" t="s">
-        <v>74</v>
-      </c>
-      <c r="S17" t="s">
-        <v>74</v>
-      </c>
-      <c r="T17" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" t="s">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,8 +1317,122 @@
       <c r="C18" t="s">
         <v>32</v>
       </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" t="s">
+        <v>73</v>
+      </c>
+      <c r="S18" t="s">
+        <v>73</v>
+      </c>
+      <c r="T18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1242,8 +1442,122 @@
       <c r="C19" t="s">
         <v>32</v>
       </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>73</v>
+      </c>
+      <c r="R19" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1253,8 +1567,122 @@
       <c r="C20" t="s">
         <v>32</v>
       </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>73</v>
+      </c>
+      <c r="R20" t="s">
+        <v>73</v>
+      </c>
+      <c r="S20" t="s">
+        <v>73</v>
+      </c>
+      <c r="T20" t="s">
+        <v>73</v>
+      </c>
+      <c r="U20" t="s">
+        <v>73</v>
+      </c>
+      <c r="V20" t="s">
+        <v>73</v>
+      </c>
+      <c r="W20" t="s">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1264,8 +1692,122 @@
       <c r="C21" t="s">
         <v>31</v>
       </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>73</v>
+      </c>
+      <c r="R21" t="s">
+        <v>73</v>
+      </c>
+      <c r="S21" t="s">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1275,8 +1817,122 @@
       <c r="C22" t="s">
         <v>32</v>
       </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>73</v>
+      </c>
+      <c r="R22" t="s">
+        <v>73</v>
+      </c>
+      <c r="S22" t="s">
+        <v>73</v>
+      </c>
+      <c r="T22" t="s">
+        <v>73</v>
+      </c>
+      <c r="U22" t="s">
+        <v>73</v>
+      </c>
+      <c r="V22" t="s">
+        <v>73</v>
+      </c>
+      <c r="W22" t="s">
+        <v>73</v>
+      </c>
+      <c r="X22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,11 +1942,122 @@
       <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>73</v>
+      </c>
+      <c r="R23" t="s">
+        <v>73</v>
+      </c>
+      <c r="S23" t="s">
+        <v>73</v>
+      </c>
+      <c r="T23" t="s">
+        <v>73</v>
+      </c>
+      <c r="U23" t="s">
+        <v>73</v>
+      </c>
+      <c r="V23" t="s">
+        <v>73</v>
+      </c>
+      <c r="W23" t="s">
+        <v>73</v>
+      </c>
+      <c r="X23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1300,8 +2067,122 @@
       <c r="C24" t="s">
         <v>32</v>
       </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24" t="s">
+        <v>73</v>
+      </c>
+      <c r="S24" t="s">
+        <v>73</v>
+      </c>
+      <c r="T24" t="s">
+        <v>73</v>
+      </c>
+      <c r="U24" t="s">
+        <v>73</v>
+      </c>
+      <c r="V24" t="s">
+        <v>73</v>
+      </c>
+      <c r="W24" t="s">
+        <v>73</v>
+      </c>
+      <c r="X24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1311,8 +2192,122 @@
       <c r="C25" t="s">
         <v>32</v>
       </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>73</v>
+      </c>
+      <c r="R25" t="s">
+        <v>73</v>
+      </c>
+      <c r="S25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T25" t="s">
+        <v>73</v>
+      </c>
+      <c r="U25" t="s">
+        <v>73</v>
+      </c>
+      <c r="V25" t="s">
+        <v>73</v>
+      </c>
+      <c r="W25" t="s">
+        <v>73</v>
+      </c>
+      <c r="X25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1322,8 +2317,122 @@
       <c r="C26" t="s">
         <v>32</v>
       </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>73</v>
+      </c>
+      <c r="R26" t="s">
+        <v>73</v>
+      </c>
+      <c r="S26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T26" t="s">
+        <v>73</v>
+      </c>
+      <c r="U26" t="s">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1333,8 +2442,122 @@
       <c r="C27" t="s">
         <v>32</v>
       </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" t="s">
+        <v>73</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>73</v>
+      </c>
+      <c r="R27" t="s">
+        <v>73</v>
+      </c>
+      <c r="S27" t="s">
+        <v>73</v>
+      </c>
+      <c r="T27" t="s">
+        <v>73</v>
+      </c>
+      <c r="U27" t="s">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="28" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1344,8 +2567,122 @@
       <c r="C28" t="s">
         <v>33</v>
       </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>73</v>
+      </c>
+      <c r="R28" t="s">
+        <v>73</v>
+      </c>
+      <c r="S28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s">
+        <v>73</v>
+      </c>
+      <c r="X28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="29" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,6 +2691,120 @@
       </c>
       <c r="C29" t="s">
         <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" t="s">
+        <v>73</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>73</v>
+      </c>
+      <c r="R29" t="s">
+        <v>73</v>
+      </c>
+      <c r="S29" t="s">
+        <v>73</v>
+      </c>
+      <c r="T29" t="s">
+        <v>73</v>
+      </c>
+      <c r="U29" t="s">
+        <v>73</v>
+      </c>
+      <c r="V29" t="s">
+        <v>73</v>
+      </c>
+      <c r="W29" t="s">
+        <v>73</v>
+      </c>
+      <c r="X29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Notice_export.xlsx
+++ b/Notice_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370F6F12-A7CA-4CDC-BD09-803F69CEE3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BEE48B-965A-4BBA-AFFB-3B62AA81D2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC8138EE-D32B-4521-81F9-4B6DD4B1CE53}"/>
   </bookViews>
@@ -256,10 +256,10 @@
     <t>3.  Utiliser la colonne "Indice_priorité_conservation" pour hiérarchiser les espèces remarquables entre elles et cibler celles qui présentent les scores de priorité de conservation les plus hauts pour les notifier en commentaire de parcelle sur l'aménagement et inclure potentiellement des conseils de gestion basés sur les fiches espèce de la colonne "Conseils_gestion".</t>
   </si>
   <si>
-    <t>1 = faible, 2 = modérée, 3 = élevée, 4 = très élevée, 5 = majeure. Croisement de la Vulnérabilité (déterminée en croisant les listes rouges nationales et régionales) et de la Responsabilité_régionale (déterminée en calculant la proportion de maille de présence de l'espèce en Normandie par rapport à la métropole). La vulnérabilité, la responsabilité et l'indice de priorité de conservation ont été déterminés en s'appuyant sur la méthodologie Barneix &amp; Gigot, 2013.</t>
-  </si>
-  <si>
     <t>…...............</t>
+  </si>
+  <si>
+    <t>1 = modérée, 2 = significative, 3 = forte, 4 = majeure, 5 = cruciale. Croisement de la Vulnérabilité (déterminée en croisant les listes rouges nationales et régionales) et de la Responsabilité_régionale (déterminée en calculant la proportion de maille de présence de l'espèce en Normandie par rapport à la métropole). La vulnérabilité, la responsabilité et l'indice de priorité de conservation ont été déterminés en s'appuyant sur la méthodologie Barneix &amp; Gigot, 2013.</t>
   </si>
 </sst>
 </file>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47A8BD-8584-4D61-B5EC-09B16443D8A6}">
   <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,118 +713,118 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -838,118 +838,118 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -963,19 +963,19 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
       </c>
       <c r="AO4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -989,16 +989,16 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
@@ -1012,19 +1012,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
         <v>65</v>
       </c>
       <c r="AO6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -1038,19 +1038,19 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
         <v>66</v>
       </c>
       <c r="AO7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -1064,16 +1064,16 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -1087,19 +1087,19 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
         <v>67</v>
       </c>
       <c r="AO9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="30" x14ac:dyDescent="0.25">
@@ -1113,19 +1113,19 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
         <v>60</v>
       </c>
       <c r="AO10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -1139,19 +1139,19 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
         <v>61</v>
       </c>
       <c r="AO11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -1165,19 +1165,19 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
         <v>62</v>
       </c>
       <c r="AO12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -1191,19 +1191,19 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
         <v>63</v>
       </c>
       <c r="AO13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -1217,19 +1217,19 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
         <v>64</v>
       </c>
       <c r="AO14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -1243,16 +1243,16 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -1266,19 +1266,19 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
         <v>71</v>
       </c>
       <c r="AO16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -1292,19 +1292,19 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
         <v>68</v>
       </c>
       <c r="AO17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -1318,118 +1318,118 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:41" ht="60" x14ac:dyDescent="0.25">
@@ -1443,118 +1443,118 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="60" x14ac:dyDescent="0.25">
@@ -1568,118 +1568,118 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:41" ht="120" x14ac:dyDescent="0.25">
@@ -1687,124 +1687,124 @@
         <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:41" ht="30" x14ac:dyDescent="0.25">
@@ -1818,118 +1818,118 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:41" ht="75" x14ac:dyDescent="0.25">
@@ -1943,118 +1943,118 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -2068,118 +2068,118 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -2193,118 +2193,118 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -2318,118 +2318,118 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
@@ -2443,118 +2443,118 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:41" ht="60" x14ac:dyDescent="0.25">
@@ -2568,118 +2568,118 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:41" ht="30" x14ac:dyDescent="0.25">
@@ -2693,118 +2693,118 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Notice_export.xlsx
+++ b/Notice_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BEE48B-965A-4BBA-AFFB-3B62AA81D2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7E6EB-817B-4826-9554-483DDAE38F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC8138EE-D32B-4521-81F9-4B6DD4B1CE53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="76">
   <si>
     <t>Forêt</t>
   </si>
@@ -44,9 +44,6 @@
     <t>CD_NOM</t>
   </si>
   <si>
-    <t>Date de début</t>
-  </si>
-  <si>
     <t>Espèce</t>
   </si>
   <si>
@@ -60,12 +57,6 @@
   </si>
   <si>
     <t>Système de coordonnées</t>
-  </si>
-  <si>
-    <t>Précision de la localisation</t>
-  </si>
-  <si>
-    <t>Fichier joint (localisation)</t>
   </si>
   <si>
     <t>Commentaire de la localisation</t>
@@ -181,9 +172,6 @@
     <t xml:space="preserve">Observation vérifiée ou non. </t>
   </si>
   <si>
-    <t>Statut juridique publi / privé de la donnée.</t>
-  </si>
-  <si>
     <t>Nom et prénom de l'observateur.</t>
   </si>
   <si>
@@ -211,12 +199,6 @@
     <t>Nom de la Forêt (FD : Forêt domaniale, FC : Forêt communale).</t>
   </si>
   <si>
-    <t>Précision décamétrique, 25 à 50m, Métrique ou submétrique ou Inconnue.</t>
-  </si>
-  <si>
-    <t>Présence d'un fichier joint sur la BDN (oui/non)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Utilisation du tableau "Export aménagement" : </t>
   </si>
   <si>
@@ -260,6 +242,30 @@
   </si>
   <si>
     <t>1 = modérée, 2 = significative, 3 = forte, 4 = majeure, 5 = cruciale. Croisement de la Vulnérabilité (déterminée en croisant les listes rouges nationales et régionales) et de la Responsabilité_régionale (déterminée en calculant la proportion de maille de présence de l'espèce en Normandie par rapport à la métropole). La vulnérabilité, la responsabilité et l'indice de priorité de conservation ont été déterminés en s'appuyant sur la méthodologie Barneix &amp; Gigot, 2013.</t>
+  </si>
+  <si>
+    <t>Date début</t>
+  </si>
+  <si>
+    <t>Commentaire du relevé</t>
+  </si>
+  <si>
+    <t>Commentaire du relevé.</t>
+  </si>
+  <si>
+    <t>Commentaire de la localisation.</t>
+  </si>
+  <si>
+    <t>Commentaire de l'observation.</t>
+  </si>
+  <si>
+    <t>Surface de la géométrie</t>
+  </si>
+  <si>
+    <t>Surface de la géométrie. 0 = point.</t>
+  </si>
+  <si>
+    <t>Statut juridique public / privé de la donnée.</t>
   </si>
 </sst>
 </file>
@@ -671,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F47A8BD-8584-4D61-B5EC-09B16443D8A6}">
   <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,13 +694,13 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -707,124 +713,124 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -832,1979 +838,1979 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AO4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AO6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AO9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AO10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AO12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AO13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AO14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AO16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AO17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:41" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="T29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Z29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AD29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AE29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AF29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AG29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AH29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AJ29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AK29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AL29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AM29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AN29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AO29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Notice_export.xlsx
+++ b/Notice_export.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk69074\Projet python\depot_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7E6EB-817B-4826-9554-483DDAE38F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB076A6-C066-429A-A561-A7E561B09461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC8138EE-D32B-4521-81F9-4B6DD4B1CE53}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>BDN</t>
   </si>
   <si>
-    <t>Méthode Barneix &amp; Gigot, 2013</t>
-  </si>
-  <si>
     <t>INPN</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Intitulé du Plan national d'action (PNA) ou régional d'action (PRA) si existant. Plan en préparation ou en cours.</t>
   </si>
   <si>
-    <t>Indice_priorité_conservation</t>
-  </si>
-  <si>
     <t>Intitulé des annexes des directives européennes si concerné. DH = Directive habitats, faune, flore. DO = Directive oiseaux.</t>
   </si>
   <si>
@@ -235,15 +229,9 @@
     <t>Statut liste rouge nationale. RE = Disparue, CR = En danger critique, EN = En danger, VU = Vulnérable, NT = Quasi-menacé, LC = Préoccupation mineure, NE =  Non évalué, DD = Données insuffisantes, NA = Non applicable.</t>
   </si>
   <si>
-    <t>3.  Utiliser la colonne "Indice_priorité_conservation" pour hiérarchiser les espèces remarquables entre elles et cibler celles qui présentent les scores de priorité de conservation les plus hauts pour les notifier en commentaire de parcelle sur l'aménagement et inclure potentiellement des conseils de gestion basés sur les fiches espèce de la colonne "Conseils_gestion".</t>
-  </si>
-  <si>
     <t>…...............</t>
   </si>
   <si>
-    <t>1 = modérée, 2 = significative, 3 = forte, 4 = majeure, 5 = cruciale. Croisement de la Vulnérabilité (déterminée en croisant les listes rouges nationales et régionales) et de la Responsabilité_régionale (déterminée en calculant la proportion de maille de présence de l'espèce en Normandie par rapport à la métropole). La vulnérabilité, la responsabilité et l'indice de priorité de conservation ont été déterminés en s'appuyant sur la méthodologie Barneix &amp; Gigot, 2013.</t>
-  </si>
-  <si>
     <t>Date début</t>
   </si>
   <si>
@@ -266,6 +254,18 @@
   </si>
   <si>
     <t>Statut juridique public / privé de la donnée.</t>
+  </si>
+  <si>
+    <t>Indice_global</t>
+  </si>
+  <si>
+    <t>Méthode SEAP cf page "Accueil" de l'outil Espèces remarquables &amp; Prescriptions</t>
+  </si>
+  <si>
+    <t>3.  Utiliser la colonne "Indice_global" pour hiérarchiser les espèces remarquables entre elles et cibler celles qui présentent les scores  les plus hauts pour les notifier en commentaire de parcelle sur l'aménagement et inclure potentiellement des conseils de gestion basés sur les fiches espèce de la colonne "Conseils_gestion".</t>
+  </si>
+  <si>
+    <t>Note sur 20. 0-2 : Enjeu faible, 4-8 : Enjeu modéré, 10-12 : Enjeu élevé, 14-16 : Enjeu fort, 18-20 : Enjeu majeur. Croisement de la priorité réglementaire et de la priorité de conservation. Cf méthodologie SEAP.</t>
   </si>
 </sst>
 </file>
@@ -678,14 +678,14 @@
   <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="57.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
@@ -713,124 +713,124 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
@@ -838,150 +838,150 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AO4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -989,48 +989,48 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AO6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -1038,25 +1038,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AO7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -1064,22 +1064,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
@@ -1087,51 +1087,51 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AO9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AO10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -1139,25 +1139,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AO11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -1165,25 +1165,25 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AO12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -1191,25 +1191,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -1217,25 +1217,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AO14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -1243,22 +1243,22 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -1266,25 +1266,25 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AO16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AO17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -1318,124 +1318,124 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:41" ht="60" x14ac:dyDescent="0.25">
@@ -1443,124 +1443,124 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="60" x14ac:dyDescent="0.25">
@@ -1568,249 +1568,249 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:41" ht="30" x14ac:dyDescent="0.25">
@@ -1818,124 +1818,124 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:41" ht="75" x14ac:dyDescent="0.25">
@@ -1943,124 +1943,124 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -2068,124 +2068,124 @@
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -2193,124 +2193,124 @@
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -2318,124 +2318,124 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
@@ -2443,124 +2443,124 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:41" ht="60" x14ac:dyDescent="0.25">
@@ -2568,124 +2568,124 @@
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:41" ht="30" x14ac:dyDescent="0.25">
@@ -2693,124 +2693,124 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AH29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AL29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
